--- a/data/token/SUN.xlsx
+++ b/data/token/SUN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,6 +488,30 @@
         <v>0.03966</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.01804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.01886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.01732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/token/SUN.xlsx
+++ b/data/token/SUN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>2024-03-17</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
   </si>
 </sst>
 </file>
@@ -410,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,6 +524,38 @@
         <v>0.01732</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.02081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.01633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.01565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.01106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
